--- a/biology/Médecine/Médecin_de_marine/Médecin_de_marine.xlsx
+++ b/biology/Médecine/Médecin_de_marine/Médecin_de_marine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_marine</t>
+          <t>Médecin_de_marine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un médecin de marine est un médecin pratiquant sur un bateau et relevant donc de la médecine maritime. Ce peut être aussi des médecins militaires exerçant dans la marine de guerre, en France dans la Marine nationale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_marine</t>
+          <t>Médecin_de_marine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chirurgiens ou médecins de marine célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Cochon-Dupuy (1674-1757), qui fonda l'école de médecine navale de Rochefort ; et son fils Gaspard.
 François-Joseph Cazin (1788-1864), auteur d'un traité sur les plantes médicinales.
